--- a/data/E Argentina Exchange_Rates_incl_Effective_Ex_Ra (1Tr2014 a 2Tr2021 sólo trimestral) FMI.xlsx
+++ b/data/E Argentina Exchange_Rates_incl_Effective_Ex_Ra (1Tr2014 a 2Tr2021 sólo trimestral) FMI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0467F36-009E-DA4D-B81F-C52EFF4EFF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0602CF-5B4F-AA47-B6E6-057EA13DD025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27580" yWindow="-2180" windowWidth="27320" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
-    <t>Indicator</t>
-  </si>
-  <si>
     <t>2014Q1</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>Domestic Currency per U.S. Dollar, Period Average - Rate</t>
+  </si>
+  <si>
+    <t>Argentina</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -519,97 +519,97 @@
   <sheetData>
     <row r="1" spans="1:62" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AE1" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="AE1" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
@@ -645,7 +645,7 @@
     </row>
     <row r="2" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2">
         <v>12.2908378233841</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="3" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4">
         <v>11.6830488888357</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="4" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="6">
         <v>7.952</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="5" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="4">
         <v>7.5819207070707098</v>

--- a/data/E Argentina Exchange_Rates_incl_Effective_Ex_Ra (1Tr2014 a 2Tr2021 sólo trimestral) FMI.xlsx
+++ b/data/E Argentina Exchange_Rates_incl_Effective_Ex_Ra (1Tr2014 a 2Tr2021 sólo trimestral) FMI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0602CF-5B4F-AA47-B6E6-057EA13DD025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786E06E3-5E28-5C48-950E-0C5004F0302F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27580" yWindow="-2180" windowWidth="27320" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
